--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -2,40 +2,65 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Desktop Items\Desktop on 12-08-2025\MNT\Data\restaurant_billing_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2dcb6fc2c51f2c2f/Desktop/New folder/restaurant_billing_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD9ACF4-7236-4FD6-BC73-B2663B4510A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_2B59D2BFD3A05F78F3792511596540B0741FFFDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A66A2942-D6DB-4324-9EEB-C929F49CC5D6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F908EF81-DF32-4E5F-A067-FC38F831A70E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$23</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Half</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
   <si>
     <t>Aaloo- Chole  Puri</t>
   </si>
   <si>
+    <t>Aaloo Puri.jpeg</t>
+  </si>
+  <si>
     <t>Chole Bhature</t>
   </si>
   <si>
+    <t>Chole Bhature.jpeg</t>
+  </si>
+  <si>
+    <t>Chole chawal</t>
+  </si>
+  <si>
+    <t>Chole Chawal.jpeg</t>
+  </si>
+  <si>
+    <t>Rajma Chawal</t>
+  </si>
+  <si>
+    <t>Rajma Chawal.jpeg</t>
+  </si>
+  <si>
+    <t>Rasgulaa</t>
+  </si>
+  <si>
     <t>Samosa</t>
   </si>
   <si>
@@ -51,70 +76,94 @@
     <t>Honey Chill patato</t>
   </si>
   <si>
-    <t>Chole chawal</t>
-  </si>
-  <si>
-    <t>Rajma Chawal</t>
-  </si>
-  <si>
     <t>Burger Aloo tikki</t>
   </si>
   <si>
-    <t>Rasgulaa</t>
-  </si>
-  <si>
     <t>XL Burger Aloo tikki chees</t>
   </si>
   <si>
     <t>Brioche Bun Burger Paneer tikki chees</t>
   </si>
   <si>
-    <t>Wrap Paneer</t>
+    <t>Burrito wrap Paneer</t>
+  </si>
+  <si>
+    <t>Quesadilla Paneer</t>
+  </si>
+  <si>
+    <t>Pizza Margireta</t>
+  </si>
+  <si>
+    <t>Pizza Veggi Panner( Onion and Capcium and corn)</t>
+  </si>
+  <si>
+    <t>Pizza Onion and Capcium and corn</t>
+  </si>
+  <si>
+    <t>Steam Momos paneer</t>
+  </si>
+  <si>
+    <t>Kurkure Paneer Momo's</t>
+  </si>
+  <si>
+    <t>Rasgulla.jpeg</t>
+  </si>
+  <si>
+    <t>samosa.jpeg</t>
+  </si>
+  <si>
+    <t>Chumin.jpeg</t>
+  </si>
+  <si>
+    <t>Chumin Paneer.jpeg</t>
+  </si>
+  <si>
+    <t>chill Patato.jpeg</t>
+  </si>
+  <si>
+    <t>Honey Chill patato.jpeg</t>
+  </si>
+  <si>
+    <t>Burger Aloo tikki.jpeg</t>
+  </si>
+  <si>
+    <t>XL Burger Aloo tikki chees.jpeg</t>
+  </si>
+  <si>
+    <t>Brioche Bun Burger Paneer tikki chees.jpeg</t>
+  </si>
+  <si>
+    <t>Burrito wrap Paneer.jpeg</t>
+  </si>
+  <si>
+    <t>Quesadilla Paneer.jpeg</t>
+  </si>
+  <si>
+    <t>Pizza Margireta.jpeg</t>
+  </si>
+  <si>
+    <t>Pizza Veggi Panner( Onion and Capcium and corn).jpeg</t>
+  </si>
+  <si>
+    <t>Pizza Onion and Capcium and corn.jpeg</t>
+  </si>
+  <si>
+    <t>Steam Momos paneer.jpeg</t>
+  </si>
+  <si>
+    <t>Kurkure Paneer Momo's.jpeg</t>
+  </si>
+  <si>
+    <t>Tortila Wrap Paneer</t>
+  </si>
+  <si>
+    <t>Tortila Wrap Paneer.jpeg</t>
   </si>
   <si>
     <t>Wrap FaJita Paneer</t>
   </si>
   <si>
-    <t>Burrito wrap Paneer</t>
-  </si>
-  <si>
-    <t>Quesadilla Paneer</t>
-  </si>
-  <si>
-    <t>Pizza Margireta</t>
-  </si>
-  <si>
-    <t>Pizza Onion and Capcium and corn</t>
-  </si>
-  <si>
-    <t>Pizza Veggi Panner( Onion and Capcium and corn)</t>
-  </si>
-  <si>
-    <t>Steam Momos paneer</t>
-  </si>
-  <si>
-    <t>Kurkure Paneer Momo's</t>
-  </si>
-  <si>
-    <t>Half</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>https://www.google.com/imgres?q=aloo%20puri%20images&amp;imgurl=https%3A%2F%2Fwww.chefkunalkapur.com%2Fwp-content%2Fuploads%2F2021%2F05%2FAloo-Puri-Bhaji.jpg%3Fv%3D1620385178&amp;imgrefurl=https%3A%2F%2Fwww.chefkunalkapur.com%2Frecipe%2Faloo-bhaji-poori%2F&amp;docid=DKJfB7uecTaYDM&amp;tbnid=bUifSxEcbaGPvM&amp;vet=12ahUKEwjymMaN2oePAxXgSmwGHZarC_cQM3oECBsQAA..i&amp;w=2121&amp;h=1414&amp;hcb=2&amp;ved=2ahUKEwjymMaN2oePAxXgSmwGHZarC_cQM3oECBsQAA</t>
-  </si>
-  <si>
-    <t>https://www.google.com/imgres?q=chole%20bhature%20images&amp;imgurl=https%3A%2F%2Fupload.wikimedia.org%2Fwikipedia%2Fcommons%2F9%2F9e%2FChole_Bhature_from_Nagpur.JPG&amp;imgrefurl=https%3A%2F%2Fen.wikipedia.org%2Fwiki%2FChole_bhature&amp;docid=b2hj5Y0IysVKQM&amp;tbnid=J-nECpZFWnQu0M&amp;vet=12ahUKEwi-h52m2oePAxXPSGwGHciILxsQM3oECBMQAA..i&amp;w=4288&amp;h=2419&amp;hcb=2&amp;ved=2ahUKEwi-h52m2oePAxXPSGwGHciILxsQM3oECBMQAA</t>
-  </si>
-  <si>
-    <t>https://www.google.com/imgres?q=chole%20chawal%20images&amp;imgurl=https%3A%2F%2Flookaside.fbsbx.com%2Flookaside%2Fcrawler%2Fmedia%2F%3Fmedia_id%3D637418350137262&amp;imgrefurl=https%3A%2F%2Fwww.facebook.com%2Fgeetasfoodielife%2Fphotos%2Fmy-chole-chawal-thali%25EF%25B8%258F%25EF%25B8%258F%25EF%25B8%258F%25EF%25B8%258Faaj-khalo-yeh-chole-ricelagta-hai-sabko-very-nicesaturd%2F637418350137262%2F&amp;docid=qToDFBRd-5VE5M&amp;tbnid=1kqFn6qAV3qvLM&amp;vet=12ahUKEwic7IHf2oePAxU7R2cHHVyZAVIQM3oECBYQAA..i&amp;w=1423&amp;h=1423&amp;hcb=2&amp;ved=2ahUKEwic7IHf2oePAxU7R2cHHVyZAVIQM3oECBYQAA</t>
+    <t>Wrap FaJita Paneer.jpeg</t>
   </si>
 </sst>
 </file>
@@ -130,32 +179,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -168,36 +202,34 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -220,44 +252,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -284,32 +316,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -336,24 +350,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,236 +361,261 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F0B9A9-72DE-4ADE-87E3-AB08E0D57232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D4:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>30</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>30</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>30</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" t="s">
@@ -602,247 +623,244 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>15</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
         <v>30</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>35</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
         <v>30</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
         <v>35</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
         <v>50</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
         <v>60</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
         <v>50</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
         <v>70</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.google.com/imgres?q=aloo%20puri%20images&amp;imgurl=https%3A%2F%2Fwww.chefkunalkapur.com%2Fwp-content%2Fuploads%2F2021%2F05%2FAloo-Puri-Bhaji.jpg%3Fv%3D1620385178&amp;imgrefurl=https%3A%2F%2Fwww.chefkunalkapur.com%2Frecipe%2Faloo-bhaji-poori%2F&amp;docid=DKJfB7uecTaYDM&amp;tbnid=bUifSxEcbaGPvM&amp;vet=12ahUKEwjymMaN2oePAxXgSmwGHZarC_cQM3oECBsQAA..i&amp;w=2121&amp;h=1414&amp;hcb=2&amp;ved=2ahUKEwjymMaN2oePAxXgSmwGHZarC_cQM3oECBsQAA" xr:uid="{C2EBEC5A-BD7E-4BA1-97AD-D72A90C91926}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2dcb6fc2c51f2c2f/Desktop/New folder/restaurant_billing_app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0AE07497-8B50-4D56-94F4-31E10AE33BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D81F739-55AA-4B32-8C55-B1735417F30F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE309229-4BFF-4CD8-9755-1B44263D30D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Item</t>
   </si>
@@ -61,91 +61,115 @@
     <t>Quesadilla Paneer</t>
   </si>
   <si>
+    <t>Chumin.jpeg</t>
+  </si>
+  <si>
+    <t>Chumin Paneer.jpeg</t>
+  </si>
+  <si>
+    <t>chill Patato.jpeg</t>
+  </si>
+  <si>
+    <t>Honey Chill patato.jpeg</t>
+  </si>
+  <si>
+    <t>XL Burger Aloo tikki chees.jpeg</t>
+  </si>
+  <si>
+    <t>Brioche Bun Burger Paneer tikki chees.jpeg</t>
+  </si>
+  <si>
+    <t>Burrito wrap Paneer.jpeg</t>
+  </si>
+  <si>
+    <t>Quesadilla Paneer.jpeg</t>
+  </si>
+  <si>
+    <t>Tortila Wrap Paneer</t>
+  </si>
+  <si>
+    <t>Tortila Wrap Paneer.jpeg</t>
+  </si>
+  <si>
+    <t>Chill Patato</t>
+  </si>
+  <si>
+    <t>Veg Thali(Chole, Mix Veg, Raita, salad, 4 Roti, Gulab Jamun).png</t>
+  </si>
+  <si>
+    <t>Veg Special Thail(Sabzi Paneer, Mix Veg, Raita, salad, 4 Roti, Gulab Zamun).png</t>
+  </si>
+  <si>
+    <t>Veg Biryani Soya with Garlic Mayo Dip *1</t>
+  </si>
+  <si>
+    <t>Veg Biryani Paneer with Dip Garlic Mayo Dip *1</t>
+  </si>
+  <si>
+    <t>Veg Biryani Soya with Garlic Mayo Dip 1.png</t>
+  </si>
+  <si>
+    <t>Veg Biryani Paneer with Dip Garlic Mayo Dip 1.png</t>
+  </si>
+  <si>
+    <t>Veg Special Thail(Sabzi Paneer, Mix Veg, Rice, Raita, salad, 2 Roti, Gulab Zamun)</t>
+  </si>
+  <si>
+    <t>Veg Thail(Chole, Mix Veg, Rice, Raita, salad, 2 Roti, Gulab Zamun)</t>
+  </si>
+  <si>
+    <t>Burger Aloo tikki.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aloo tikki Burger </t>
+  </si>
+  <si>
+    <t>Aloo tikki chees Burger</t>
+  </si>
+  <si>
+    <t>Paneer tikki chees Burger</t>
+  </si>
+  <si>
+    <t>Schezwan Grilled Sandwich – Indo-Chinese fusion with Schezwan sauce, veggies, and cheese.</t>
+  </si>
+  <si>
+    <t>Club Sandwich (Indian Style) – Multi-layered with veggies, green chutney, Paneer patty, and cheese</t>
+  </si>
+  <si>
     <t>Pizza Margireta</t>
   </si>
   <si>
+    <t>Pizza Margireta.jpeg</t>
+  </si>
+  <si>
     <t>Pizza Veggi Panner( Onion and Capcium and corn)</t>
   </si>
   <si>
+    <t>Pizza Veggi Panner( Onion and Capcium and corn).jpeg</t>
+  </si>
+  <si>
     <t>Pizza Onion and Capcium and corn</t>
   </si>
   <si>
-    <t>Chumin.jpeg</t>
-  </si>
-  <si>
-    <t>Chumin Paneer.jpeg</t>
-  </si>
-  <si>
-    <t>chill Patato.jpeg</t>
-  </si>
-  <si>
-    <t>Honey Chill patato.jpeg</t>
-  </si>
-  <si>
-    <t>XL Burger Aloo tikki chees.jpeg</t>
-  </si>
-  <si>
-    <t>Brioche Bun Burger Paneer tikki chees.jpeg</t>
-  </si>
-  <si>
-    <t>Burrito wrap Paneer.jpeg</t>
-  </si>
-  <si>
-    <t>Quesadilla Paneer.jpeg</t>
-  </si>
-  <si>
-    <t>Pizza Margireta.jpeg</t>
-  </si>
-  <si>
-    <t>Pizza Veggi Panner( Onion and Capcium and corn).jpeg</t>
-  </si>
-  <si>
     <t>Pizza Onion and Capcium and corn.jpeg</t>
   </si>
   <si>
-    <t>Tortila Wrap Paneer</t>
-  </si>
-  <si>
-    <t>Tortila Wrap Paneer.jpeg</t>
-  </si>
-  <si>
-    <t>Chill Patato</t>
-  </si>
-  <si>
-    <t>Veg Thali(Chole, Mix Veg, Raita, salad, 4 Roti, Gulab Jamun).png</t>
-  </si>
-  <si>
-    <t>Veg Special Thail(Sabzi Paneer, Mix Veg, Raita, salad, 4 Roti, Gulab Zamun).png</t>
-  </si>
-  <si>
-    <t>Veg Biryani Soya with Garlic Mayo Dip *1</t>
-  </si>
-  <si>
-    <t>Veg Biryani Paneer with Dip Garlic Mayo Dip *1</t>
-  </si>
-  <si>
-    <t>Veg Biryani Soya with Garlic Mayo Dip 1.png</t>
-  </si>
-  <si>
-    <t>Veg Biryani Paneer with Dip Garlic Mayo Dip 1.png</t>
-  </si>
-  <si>
-    <t>Veg Special Thail(Sabzi Paneer, Mix Veg, Rice, Raita, salad, 2 Roti, Gulab Zamun)</t>
-  </si>
-  <si>
-    <t>Veg Thail(Chole, Mix Veg, Rice, Raita, salad, 2 Roti, Gulab Zamun)</t>
-  </si>
-  <si>
-    <t>Burger Aloo tikki.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aloo tikki Burger </t>
-  </si>
-  <si>
-    <t>Aloo tikki chees Burger</t>
-  </si>
-  <si>
-    <t>Paneer tikki chees Burger</t>
+    <t>Steam Momos paneer.jpeg</t>
+  </si>
+  <si>
+    <t>Steamed Veg Momos/8 piece</t>
+  </si>
+  <si>
+    <t>Schezwan Grilled Sandwich.png</t>
+  </si>
+  <si>
+    <t>Multi-layered with veggies Paneer.png</t>
+  </si>
+  <si>
+    <t>Kurkure Paneer Momo's.jpeg</t>
+  </si>
+  <si>
+    <t>Kurkure Paneer Momo's/8 piece</t>
   </si>
 </sst>
 </file>
@@ -508,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,7 +597,7 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -587,12 +611,12 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -601,7 +625,7 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -615,12 +639,12 @@
         <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -629,12 +653,12 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -643,12 +667,12 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -657,12 +681,12 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>50</v>
@@ -671,7 +695,7 @@
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -685,107 +709,139 @@
         <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
         <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE309229-4BFF-4CD8-9755-1B44263D30D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFD049D-26C4-4A3A-834A-0536DF99CC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -701,9 +701,6 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
-      </c>
-      <c r="B12">
-        <v>60</v>
       </c>
       <c r="C12">
         <v>70</v>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFD049D-26C4-4A3A-834A-0536DF99CC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9AB4A1-0876-4F41-999A-7A91395C3077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -577,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -591,10 +591,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -605,10 +605,10 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -619,10 +619,10 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -633,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9AB4A1-0876-4F41-999A-7A91395C3077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161A6D82-A538-4115-811D-2392E4BEB42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,216 +574,216 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
       </c>
       <c r="C19">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161A6D82-A538-4115-811D-2392E4BEB42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F6AF2-38DA-410A-A077-4B7F055EEC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,230 +560,230 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F6AF2-38DA-410A-A077-4B7F055EEC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9696B75E-52B6-4289-AFD0-5DA6B6D59C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Item</t>
   </si>
@@ -133,9 +134,6 @@
     <t>Schezwan Grilled Sandwich – Indo-Chinese fusion with Schezwan sauce, veggies, and cheese.</t>
   </si>
   <si>
-    <t>Club Sandwich (Indian Style) – Multi-layered with veggies, green chutney, Paneer patty, and cheese</t>
-  </si>
-  <si>
     <t>Pizza Margireta</t>
   </si>
   <si>
@@ -170,6 +168,9 @@
   </si>
   <si>
     <t>Kurkure Paneer Momo's/8 piece</t>
+  </si>
+  <si>
+    <t>Club Sandwich (Indian Style) –Veggies, green chutney, Paneer patty, and cheese</t>
   </si>
 </sst>
 </file>
@@ -532,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,6 +561,240 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F706198-D873-480A-9E7F-990687BD7562}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
@@ -616,232 +851,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>150</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>175</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>80</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19">
-        <v>150</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21">
-        <v>120</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24">
-        <v>120</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9696B75E-52B6-4289-AFD0-5DA6B6D59C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952880C9-2B54-43B4-9314-90B63EB9A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,21 +134,12 @@
     <t>Schezwan Grilled Sandwich – Indo-Chinese fusion with Schezwan sauce, veggies, and cheese.</t>
   </si>
   <si>
-    <t>Pizza Margireta</t>
-  </si>
-  <si>
     <t>Pizza Margireta.jpeg</t>
   </si>
   <si>
-    <t>Pizza Veggi Panner( Onion and Capcium and corn)</t>
-  </si>
-  <si>
     <t>Pizza Veggi Panner( Onion and Capcium and corn).jpeg</t>
   </si>
   <si>
-    <t>Pizza Onion and Capcium and corn</t>
-  </si>
-  <si>
     <t>Pizza Onion and Capcium and corn.jpeg</t>
   </si>
   <si>
@@ -171,12 +162,24 @@
   </si>
   <si>
     <t>Club Sandwich (Indian Style) –Veggies, green chutney, Paneer patty, and cheese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Margarita Medium </t>
+  </si>
+  <si>
+    <t>Pizza Onion and Capsicum Medium ₹</t>
+  </si>
+  <si>
+    <t>Pizza Veggie Panner( Onion and Capsicum and corn) Medium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,11 +229,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +540,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,11 +567,8 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
+      <c r="C2" s="2">
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -577,11 +578,8 @@
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
+      <c r="C3" s="2">
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -591,11 +589,8 @@
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>70</v>
+      <c r="C4" s="2">
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -605,11 +600,8 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
+      <c r="C5" s="2">
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -619,8 +611,8 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>70</v>
+      <c r="C6" s="2">
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -630,8 +622,8 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>60</v>
+      <c r="C7" s="2">
+        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -641,29 +633,29 @@
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="C8">
-        <v>80</v>
+      <c r="C8" s="2">
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
+        <v>46</v>
+      </c>
+      <c r="C9" s="2">
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>150</v>
       </c>
       <c r="D10" t="s">
@@ -674,7 +666,7 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>175</v>
       </c>
       <c r="D11" t="s">
@@ -685,10 +677,7 @@
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>80</v>
       </c>
       <c r="D12" t="s">
@@ -699,10 +688,7 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>80</v>
       </c>
       <c r="D13" t="s">
@@ -713,8 +699,8 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="C14">
-        <v>100</v>
+      <c r="C14" s="2">
+        <v>120</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -724,8 +710,8 @@
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="C15">
-        <v>150</v>
+      <c r="C15" s="2">
+        <v>175</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -733,39 +719,40 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
         <v>37</v>
-      </c>
-      <c r="C16">
-        <v>80</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17">
-        <v>120</v>
+        <v>48</v>
+      </c>
+      <c r="C17" s="2">
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="C18" s="2">
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -774,10 +761,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -851,24 +842,24 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952880C9-2B54-43B4-9314-90B63EB9A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751023B6-9F3C-42E1-95EE-E18341FDF220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,7 +540,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,156 +598,156 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2">
         <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751023B6-9F3C-42E1-95EE-E18341FDF220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB1C432-A091-4205-9A43-68F9572276DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,12 +113,6 @@
     <t>Veg Biryani Paneer with Dip Garlic Mayo Dip 1.png</t>
   </si>
   <si>
-    <t>Veg Special Thail(Sabzi Paneer, Mix Veg, Rice, Raita, salad, 2 Roti, Gulab Zamun)</t>
-  </si>
-  <si>
-    <t>Veg Thail(Chole, Mix Veg, Rice, Raita, salad, 2 Roti, Gulab Zamun)</t>
-  </si>
-  <si>
     <t>Burger Aloo tikki.png</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>Paneer tikki chees Burger</t>
   </si>
   <si>
-    <t>Schezwan Grilled Sandwich – Indo-Chinese fusion with Schezwan sauce, veggies, and cheese.</t>
-  </si>
-  <si>
     <t>Pizza Margireta.jpeg</t>
   </si>
   <si>
@@ -161,16 +152,25 @@
     <t>Kurkure Paneer Momo's/8 piece</t>
   </si>
   <si>
-    <t>Club Sandwich (Indian Style) –Veggies, green chutney, Paneer patty, and cheese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizza Margarita Medium </t>
-  </si>
-  <si>
-    <t>Pizza Onion and Capsicum Medium ₹</t>
-  </si>
-  <si>
-    <t>Pizza Veggie Panner( Onion and Capsicum and corn) Medium</t>
+    <t>Veg Special Thail(Shai Paneer, Mix Veg, 2 Roti, Rice, Raita, salad,Aachar, One Sweet)</t>
+  </si>
+  <si>
+    <t>Veg Thail(Chole, Mix Veg, 2 Roti, Rice, Raita, salad, Aachar, One Sweet)</t>
+  </si>
+  <si>
+    <t>Schezwan Grilled Sandwich – Indo-Chinese fusion with Schezwan sauce, Veggies Patty, and cheese.</t>
+  </si>
+  <si>
+    <t>Club Sandwich (Indian Style) –Paneer Patty, and cheese, Veggies, green chutney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Onion and Capsicum 10' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Margarita 10' </t>
+  </si>
+  <si>
+    <t>Pizza Panner, Veggie ( Onion and Capsicum and corn) 10'</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,18 +565,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>60</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>100</v>
@@ -598,24 +598,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -626,7 +626,7 @@
         <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -664,13 +664,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2">
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -678,15 +678,15 @@
         <v>46</v>
       </c>
       <c r="C12" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2">
         <v>150</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
         <v>175</v>
@@ -842,24 +842,24 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB1C432-A091-4205-9A43-68F9572276DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76EDA7D-C2BE-4237-AF01-BE3450FB560B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Item</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Pizza Panner, Veggie ( Onion and Capsicum and corn) 10'</t>
+  </si>
+  <si>
+    <t>7 Inch Combo Pack</t>
+  </si>
+  <si>
+    <t>7 Inch Combo Pack.png</t>
   </si>
 </sst>
 </file>
@@ -537,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,6 +754,17 @@
       </c>
       <c r="D18" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2">
+        <v>350</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76EDA7D-C2BE-4237-AF01-BE3450FB560B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF3EF0-4DD9-4C33-8729-6CE69DFB4318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Item</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Pizza Veggi Panner( Onion and Capcium and corn).jpeg</t>
   </si>
   <si>
-    <t>Pizza Onion and Capcium and corn.jpeg</t>
-  </si>
-  <si>
     <t>Steam Momos paneer.jpeg</t>
   </si>
   <si>
@@ -173,10 +170,43 @@
     <t>Pizza Panner, Veggie ( Onion and Capsicum and corn) 10'</t>
   </si>
   <si>
-    <t>7 Inch Combo Pack</t>
-  </si>
-  <si>
     <t>7 Inch Combo Pack.png</t>
+  </si>
+  <si>
+    <t>7 Inch Pizza Margarita</t>
+  </si>
+  <si>
+    <t>7 Inch Pizza Onion and Capsicum</t>
+  </si>
+  <si>
+    <t>7 Inch Combo Pack (Pizza Margarita, Onion and Capsicum, Corn, Pizza Panner)</t>
+  </si>
+  <si>
+    <t>7 Inch Pizza Panner</t>
+  </si>
+  <si>
+    <t>7 Inch Pizza Corn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Corn 10' </t>
+  </si>
+  <si>
+    <t>Pizza Onion and Capcium.jpeg</t>
+  </si>
+  <si>
+    <t>7 Inch Pizza Onion and Capsicum.jpeg</t>
+  </si>
+  <si>
+    <t>7 Inch Pizza Panner.jpeg</t>
+  </si>
+  <si>
+    <t>7 Inch Pizza Corn.png</t>
+  </si>
+  <si>
+    <t>7 Inch Pizza Margarita.png</t>
+  </si>
+  <si>
+    <t>Pizza Corn 10'.png</t>
   </si>
 </sst>
 </file>
@@ -543,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -585,7 +615,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -596,7 +626,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -604,10 +634,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -615,156 +645,211 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
         <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2">
         <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2">
+        <v>175</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2">
+        <v>175</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -859,24 +944,24 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF3EF0-4DD9-4C33-8729-6CE69DFB4318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE561957-E04C-4EA6-A6C4-D6711316E09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,19 +194,19 @@
     <t>Pizza Onion and Capcium.jpeg</t>
   </si>
   <si>
-    <t>7 Inch Pizza Onion and Capsicum.jpeg</t>
-  </si>
-  <si>
-    <t>7 Inch Pizza Panner.jpeg</t>
-  </si>
-  <si>
     <t>7 Inch Pizza Corn.png</t>
   </si>
   <si>
     <t>7 Inch Pizza Margarita.png</t>
   </si>
   <si>
-    <t>Pizza Corn 10'.png</t>
+    <t>7 Inch Pizza Panner.jpg</t>
+  </si>
+  <si>
+    <t>7 Inch Pizza Onion and Capsicum.jpg</t>
+  </si>
+  <si>
+    <t>Pizza Corn 10.png</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,7 +695,7 @@
         <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -706,7 +706,7 @@
         <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -717,7 +717,7 @@
         <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -728,7 +728,7 @@
         <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE561957-E04C-4EA6-A6C4-D6711316E09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB10A5F-695B-4A0E-A036-BDABEE2AAFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t xml:space="preserve">Pizza Margarita 10' </t>
   </si>
   <si>
-    <t>Pizza Panner, Veggie ( Onion and Capsicum and corn) 10'</t>
-  </si>
-  <si>
     <t>7 Inch Combo Pack.png</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>7 Inch Combo Pack (Pizza Margarita, Onion and Capsicum, Corn, Pizza Panner)</t>
   </si>
   <si>
-    <t>7 Inch Pizza Panner</t>
-  </si>
-  <si>
     <t>7 Inch Pizza Corn</t>
   </si>
   <si>
@@ -207,6 +201,12 @@
   </si>
   <si>
     <t>Pizza Corn 10.png</t>
+  </si>
+  <si>
+    <t>7 Inch Pizza Paneer</t>
+  </si>
+  <si>
+    <t>Pizza Paneer, Veggie ( Onion and Capsicum and corn) 10'</t>
   </si>
 </sst>
 </file>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,7 +637,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -645,13 +645,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -659,15 +659,15 @@
         <v>46</v>
       </c>
       <c r="C7" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2">
         <v>200</v>
@@ -678,57 +678,57 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>350</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2">
         <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2">
         <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2">
         <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2">
         <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB10A5F-695B-4A0E-A036-BDABEE2AAFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD86A10-29FA-4874-B904-9BC425F737D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,9 +176,6 @@
     <t>7 Inch Pizza Onion and Capsicum</t>
   </si>
   <si>
-    <t>7 Inch Combo Pack (Pizza Margarita, Onion and Capsicum, Corn, Pizza Panner)</t>
-  </si>
-  <si>
     <t>7 Inch Pizza Corn</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>Pizza Paneer, Veggie ( Onion and Capsicum and corn) 10'</t>
+  </si>
+  <si>
+    <t>7 Inch Combo Pack (Pizza Margarita, Onion and Capsicum, Corn, Pizza Paneer)</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,13 +645,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2">
         <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -662,12 +662,12 @@
         <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2">
         <v>200</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2">
         <v>350</v>
@@ -695,7 +695,7 @@
         <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -706,29 +706,29 @@
         <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2">
         <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2">
         <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD86A10-29FA-4874-B904-9BC425F737D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4617150D-7AA7-46A1-A7C5-0053BD0B172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,12 +161,6 @@
     <t>Club Sandwich (Indian Style) –Paneer Patty, and cheese, Veggies, green chutney</t>
   </si>
   <si>
-    <t xml:space="preserve">Pizza Onion and Capsicum 10' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizza Margarita 10' </t>
-  </si>
-  <si>
     <t>7 Inch Combo Pack.png</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>7 Inch Pizza Corn</t>
   </si>
   <si>
-    <t xml:space="preserve">Pizza Corn 10' </t>
-  </si>
-  <si>
     <t>Pizza Onion and Capcium.jpeg</t>
   </si>
   <si>
@@ -203,10 +194,19 @@
     <t>7 Inch Pizza Paneer</t>
   </si>
   <si>
-    <t>Pizza Paneer, Veggie ( Onion and Capsicum and corn) 10'</t>
-  </si>
-  <si>
     <t>7 Inch Combo Pack (Pizza Margarita, Onion and Capsicum, Corn, Pizza Paneer)</t>
+  </si>
+  <si>
+    <t>Pizza Onion and Capsicum 10' Inch</t>
+  </si>
+  <si>
+    <t>Pizza Paneer, Veggie ( Onion and Capsicum and corn) 10' Inch</t>
+  </si>
+  <si>
+    <t>Pizza Corn 10' Inch</t>
+  </si>
+  <si>
+    <t>Pizza Margarita 10' Inch</t>
   </si>
 </sst>
 </file>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,7 +634,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2">
         <v>120</v>
@@ -645,29 +645,29 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2">
         <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2">
         <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2">
         <v>200</v>
@@ -678,57 +678,57 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2">
         <v>350</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2">
         <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2">
         <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
         <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2">
         <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -788,67 +788,23 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2">
         <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2">
-        <v>120</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2">
-        <v>175</v>
-      </c>
-      <c r="D24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -860,10 +816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F706198-D873-480A-9E7F-990687BD7562}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,6 +920,50 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4617150D-7AA7-46A1-A7C5-0053BD0B172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8151DB-0E51-4D56-B989-3A7880F72FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>Veg Biryani Soya with Garlic Mayo Dip 1.png</t>
   </si>
   <si>
-    <t>Veg Biryani Paneer with Dip Garlic Mayo Dip 1.png</t>
-  </si>
-  <si>
     <t>Burger Aloo tikki.png</t>
   </si>
   <si>
@@ -125,12 +122,6 @@
     <t>Paneer tikki chees Burger</t>
   </si>
   <si>
-    <t>Pizza Margireta.jpeg</t>
-  </si>
-  <si>
-    <t>Pizza Veggi Panner( Onion and Capcium and corn).jpeg</t>
-  </si>
-  <si>
     <t>Steam Momos paneer.jpeg</t>
   </si>
   <si>
@@ -173,24 +164,6 @@
     <t>7 Inch Pizza Corn</t>
   </si>
   <si>
-    <t>Pizza Onion and Capcium.jpeg</t>
-  </si>
-  <si>
-    <t>7 Inch Pizza Corn.png</t>
-  </si>
-  <si>
-    <t>7 Inch Pizza Margarita.png</t>
-  </si>
-  <si>
-    <t>7 Inch Pizza Panner.jpg</t>
-  </si>
-  <si>
-    <t>7 Inch Pizza Onion and Capsicum.jpg</t>
-  </si>
-  <si>
-    <t>Pizza Corn 10.png</t>
-  </si>
-  <si>
     <t>7 Inch Pizza Paneer</t>
   </si>
   <si>
@@ -207,6 +180,33 @@
   </si>
   <si>
     <t>Pizza Margarita 10' Inch</t>
+  </si>
+  <si>
+    <t>10 Inch Margrita Pizza.png</t>
+  </si>
+  <si>
+    <t>10 Inch Corn Pizza.png</t>
+  </si>
+  <si>
+    <t>10 Inch Onion and Capsicum Pizza.png</t>
+  </si>
+  <si>
+    <t>10 Inch Pizza Veggi Panner( Onion and Capcium and corn).png</t>
+  </si>
+  <si>
+    <t>7 Inch Onion and Capsicum Pizza.png</t>
+  </si>
+  <si>
+    <t>7 Inch Margrita Pizza.png</t>
+  </si>
+  <si>
+    <t>7 Inch Paneer Pizza.png</t>
+  </si>
+  <si>
+    <t>7 Inch Corn Pizza.png</t>
+  </si>
+  <si>
+    <t>Veg Paneer Biryani.png</t>
   </si>
 </sst>
 </file>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,18 +601,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2">
         <v>80</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>120</v>
@@ -634,101 +634,101 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2">
         <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
         <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
         <v>350</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
         <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2">
         <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2">
         <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2">
         <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -766,24 +766,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2">
         <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -805,7 +805,7 @@
         <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -900,29 +900,29 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>150</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
         <v>175</v>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8151DB-0E51-4D56-B989-3A7880F72FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9482812-638E-455C-85BA-7BF4CE371034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -780,7 +780,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9482812-638E-455C-85BA-7BF4CE371034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBC2040-FC50-47BE-B405-49B9645B0C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>Item</t>
   </si>
@@ -207,6 +207,72 @@
   </si>
   <si>
     <t>Veg Paneer Biryani.png</t>
+  </si>
+  <si>
+    <t>Paneer Patty</t>
+  </si>
+  <si>
+    <t>Butter Patty</t>
+  </si>
+  <si>
+    <t>Aloo Patty</t>
+  </si>
+  <si>
+    <t>Pastry Pineapple</t>
+  </si>
+  <si>
+    <t>Pastry Chocolate</t>
+  </si>
+  <si>
+    <t>Salted French Frise</t>
+  </si>
+  <si>
+    <t>Peri-Peri French Frise</t>
+  </si>
+  <si>
+    <t>Peri- Peri French Fires.jpg</t>
+  </si>
+  <si>
+    <t>Salted French Fires image.jpg</t>
+  </si>
+  <si>
+    <t>Maza-Tetra-pack.jpg</t>
+  </si>
+  <si>
+    <t>Fanta20</t>
+  </si>
+  <si>
+    <t>Thumsup20</t>
+  </si>
+  <si>
+    <t>Frooti20</t>
+  </si>
+  <si>
+    <t>Maza10</t>
+  </si>
+  <si>
+    <t>Thumsup20.jpg</t>
+  </si>
+  <si>
+    <t>Fanta20.jpg</t>
+  </si>
+  <si>
+    <t>Frooti20jpg</t>
+  </si>
+  <si>
+    <t>Aloo Patty.jpg</t>
+  </si>
+  <si>
+    <t>Paneer Patty.jpg</t>
+  </si>
+  <si>
+    <t>Butter Patty.jpg</t>
+  </si>
+  <si>
+    <t>Pastry Chocolate.jpg</t>
+  </si>
+  <si>
+    <t>Pastry Pineappl.jpg</t>
   </si>
 </sst>
 </file>
@@ -573,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,6 +872,127 @@
       </c>
       <c r="D20" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBC2040-FC50-47BE-B405-49B9645B0C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035AF03D-5A06-46A9-8143-1FFD2C5AD034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>Item</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>Pastry Pineappl.jpg</t>
+  </si>
+  <si>
+    <t>vegetable-mayonnaise-sandwich</t>
+  </si>
+  <si>
+    <t>vegetable-mayonnaise-sandwich.jpg</t>
   </si>
 </sst>
 </file>
@@ -639,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -993,6 +999,17 @@
       </c>
       <c r="D31" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035AF03D-5A06-46A9-8143-1FFD2C5AD034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E08C6-2C35-4511-A06B-F84F9C111109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,9 +257,6 @@
     <t>Fanta20.jpg</t>
   </si>
   <si>
-    <t>Frooti20jpg</t>
-  </si>
-  <si>
     <t>Aloo Patty.jpg</t>
   </si>
   <si>
@@ -272,13 +269,16 @@
     <t>Pastry Chocolate.jpg</t>
   </si>
   <si>
-    <t>Pastry Pineappl.jpg</t>
-  </si>
-  <si>
     <t>vegetable-mayonnaise-sandwich</t>
   </si>
   <si>
     <t>vegetable-mayonnaise-sandwich.jpg</t>
+  </si>
+  <si>
+    <t>Frooti20.jpg</t>
+  </si>
+  <si>
+    <t>Pastry Pineapple.jpg</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -888,7 +888,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -899,7 +899,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -910,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -921,7 +921,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -932,7 +932,7 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -965,7 +965,7 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1003,13 +1003,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066E08C6-2C35-4511-A06B-F84F9C111109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68618094-B269-423E-AFE0-0A1D39341106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -709,7 +709,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
@@ -720,7 +720,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -731,7 +731,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
@@ -764,7 +764,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
@@ -775,7 +775,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
@@ -786,7 +786,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
@@ -797,7 +797,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
@@ -808,7 +808,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -819,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -852,7 +852,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68618094-B269-423E-AFE0-0A1D39341106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF395DE-C72A-48CD-9D21-B8BC8E199063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="121">
   <si>
     <t>Item</t>
   </si>
@@ -279,6 +279,111 @@
   </si>
   <si>
     <t>Pastry Pineapple.jpg</t>
+  </si>
+  <si>
+    <t>Thumsup25</t>
+  </si>
+  <si>
+    <t>Thusmup Can.jpg</t>
+  </si>
+  <si>
+    <t>Chips 20</t>
+  </si>
+  <si>
+    <t>Chips 10</t>
+  </si>
+  <si>
+    <t>Chips 05</t>
+  </si>
+  <si>
+    <t>Ti Tac 5</t>
+  </si>
+  <si>
+    <t>Cake 15</t>
+  </si>
+  <si>
+    <t>Cake 1 kg Chocolate</t>
+  </si>
+  <si>
+    <t>Cake 1 kg Pineapple</t>
+  </si>
+  <si>
+    <t>Cake 1kg Butterscotch</t>
+  </si>
+  <si>
+    <t>Kitkat 25</t>
+  </si>
+  <si>
+    <t>Cake 600gm Pineapple</t>
+  </si>
+  <si>
+    <t>Cake 600gm Butterscotch</t>
+  </si>
+  <si>
+    <t>Cake 600gm Chocolate</t>
+  </si>
+  <si>
+    <t>Munch 10</t>
+  </si>
+  <si>
+    <t>Hide and Seek Black bourbon 10</t>
+  </si>
+  <si>
+    <t>Hide and Seek 10</t>
+  </si>
+  <si>
+    <t>Hide and Seek 30</t>
+  </si>
+  <si>
+    <t>Chips 20.jpg</t>
+  </si>
+  <si>
+    <t>Chips 10.jpg</t>
+  </si>
+  <si>
+    <t>Kitkat 25.jpg</t>
+  </si>
+  <si>
+    <t>Chips 5.jpg</t>
+  </si>
+  <si>
+    <t>Tictac 5.jpg</t>
+  </si>
+  <si>
+    <t>Munch 10.png</t>
+  </si>
+  <si>
+    <t>Hide and Seek Black bourne 10.jpg</t>
+  </si>
+  <si>
+    <t>Hide and Seek Biscut 30.jpg</t>
+  </si>
+  <si>
+    <t>Hide and seek 10.jpg</t>
+  </si>
+  <si>
+    <t>britannia cake 15.jpg</t>
+  </si>
+  <si>
+    <t>Cake Butterscotch.jpg</t>
+  </si>
+  <si>
+    <t>Cake Chocolate.jpg</t>
+  </si>
+  <si>
+    <t>Cake Pineapple.jpg</t>
+  </si>
+  <si>
+    <t>Bourbon and Dark Fantasy Biscut 10</t>
+  </si>
+  <si>
+    <t>Bourbon and Dark Fantasy Biscut 10.jpg</t>
+  </si>
+  <si>
+    <t>Thums up 35</t>
+  </si>
+  <si>
+    <t>Thums up 35.jpg</t>
   </si>
 </sst>
 </file>
@@ -645,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,6 +1115,215 @@
       </c>
       <c r="D32" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="2">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="2">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="2">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="2">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="2">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2">
+        <v>550</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="2">
+        <v>480</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="2">
+        <v>500</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="2">
+        <v>350</v>
+      </c>
+      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="2">
+        <v>450</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="2">
+        <v>400</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="2">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF395DE-C72A-48CD-9D21-B8BC8E199063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3817CA7D-65F9-4B4F-BC3D-5B850231BF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,9 +368,6 @@
     <t>Cake Butterscotch.jpg</t>
   </si>
   <si>
-    <t>Cake Chocolate.jpg</t>
-  </si>
-  <si>
     <t>Cake Pineapple.jpg</t>
   </si>
   <si>
@@ -384,6 +381,9 @@
   </si>
   <si>
     <t>Thums up 35.jpg</t>
+  </si>
+  <si>
+    <t>Cake Chocolate.jpeg</t>
   </si>
 </sst>
 </file>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1174,13 +1174,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="2">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1213,7 +1213,7 @@
         <v>550</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1224,7 +1224,7 @@
         <v>480</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1246,7 +1246,7 @@
         <v>350</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1257,7 +1257,7 @@
         <v>450</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1317,13 +1317,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2">
         <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3817CA7D-65F9-4B4F-BC3D-5B850231BF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65BA372-E1F5-4E70-8E1E-3B17C13F22FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
   <si>
     <t>Item</t>
   </si>
@@ -384,6 +384,30 @@
   </si>
   <si>
     <t>Cake Chocolate.jpeg</t>
+  </si>
+  <si>
+    <t>dairy milk chocolate 20 rs</t>
+  </si>
+  <si>
+    <t>dairy milk chocolate 20 rs.jpg</t>
+  </si>
+  <si>
+    <t>Sprit 20 rs</t>
+  </si>
+  <si>
+    <t>Sprit 20 rs.jpg</t>
+  </si>
+  <si>
+    <t>5 Star 5 rs</t>
+  </si>
+  <si>
+    <t>Dite Coke 25 rs</t>
+  </si>
+  <si>
+    <t>5 Star 5 rs.jpg</t>
+  </si>
+  <si>
+    <t>Dite Coke 25 rs.jpg</t>
   </si>
 </sst>
 </file>
@@ -750,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1324,6 +1348,50 @@
       </c>
       <c r="D51" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="2">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="2">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65BA372-E1F5-4E70-8E1E-3B17C13F22FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B10DE-3DE5-42F3-AA7B-1F66FD8DE9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,46 +835,46 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -890,46 +890,46 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1011,288 +1011,288 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C31" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C33" s="2">
-        <v>25</v>
+        <v>450</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C38" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C39" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2">
-        <v>550</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C42" s="2">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C43" s="2">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C44" s="2">
-        <v>350</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C45" s="2">
-        <v>450</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1308,90 +1308,90 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C49" s="2">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C50" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C51" s="2">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="C52" s="2">
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C53" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C54" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1B10DE-3DE5-42F3-AA7B-1F66FD8DE9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7D799E-E118-4287-A948-7B8DBB777D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
   <si>
     <t>Item</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>Dite Coke 25 rs.jpg</t>
+  </si>
+  <si>
+    <t>Campa Energy 30Rs</t>
+  </si>
+  <si>
+    <t>Campa Energy 30Rs.jpg</t>
   </si>
 </sst>
 </file>
@@ -774,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1392,6 +1398,17 @@
       </c>
       <c r="D55" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="2">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB45CDB8-348C-47AB-9BC0-D50D4A7EFEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84802EE-6979-4EA6-9A9C-8E8923931FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,7 +723,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84802EE-6979-4EA6-9A9C-8E8923931FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2823B38F-61BC-4158-910C-26EB319000AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t>Item</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>Burrito wrap Paneer.jpeg</t>
+  </si>
+  <si>
+    <t>AppyFizz20</t>
+  </si>
+  <si>
+    <t>AppyFizz20.jpg</t>
   </si>
 </sst>
 </file>
@@ -375,6 +381,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -720,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,6 +1450,20 @@
       </c>
       <c r="D51" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2823B38F-61BC-4158-910C-26EB319000AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668B15D6-DF12-4845-B93C-275D2502BDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="115">
   <si>
     <t>Item</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>AppyFizz20.jpg</t>
+  </si>
+  <si>
+    <t>7 Inch Pizza Veggi Panner( Onion and Capcium and corn)</t>
+  </si>
+  <si>
+    <t>7 Inch Pizza Veggi Panner( Onion and Capcium and corn).png</t>
   </si>
 </sst>
 </file>
@@ -727,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,35 +858,32 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C9">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -889,54 +892,54 @@
         <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -945,306 +948,306 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>550</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1253,82 +1256,82 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1337,12 +1340,12 @@
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1351,12 +1354,12 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1365,26 +1368,26 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1393,26 +1396,26 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1421,48 +1424,62 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>111</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
         <v>20</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>112</v>
       </c>
     </row>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668B15D6-DF12-4845-B93C-275D2502BDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E4F5C7-3C99-48F8-8C4B-08445CE3F50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -860,8 +860,11 @@
       <c r="A9" t="s">
         <v>113</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>114</v>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E4F5C7-3C99-48F8-8C4B-08445CE3F50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441834F-7BBC-447E-861D-930FBD49BC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,27 +83,15 @@
     <t>7 Inch Combo Pack.png</t>
   </si>
   <si>
-    <t>Pizza Margarita 10' Inch</t>
-  </si>
-  <si>
     <t>10 Inch Margrita Pizza.png</t>
   </si>
   <si>
-    <t>Pizza Corn 10' Inch</t>
-  </si>
-  <si>
     <t>10 Inch Corn Pizza.png</t>
   </si>
   <si>
-    <t>Pizza Onion and Capsicum 10' Inch</t>
-  </si>
-  <si>
     <t>10 Inch Onion and Capsicum Pizza.png</t>
   </si>
   <si>
-    <t>Pizza Paneer, Veggie ( Onion and Capsicum and corn) 10' Inch</t>
-  </si>
-  <si>
     <t>10 Inch Pizza Veggi Panner( Onion and Capcium and corn).png</t>
   </si>
   <si>
@@ -366,6 +354,18 @@
   </si>
   <si>
     <t>7 Inch Pizza Veggi Panner( Onion and Capcium and corn).png</t>
+  </si>
+  <si>
+    <t>Pizza Margarita 9' Inch</t>
+  </si>
+  <si>
+    <t>Pizza Corn 9' Inch</t>
+  </si>
+  <si>
+    <t>Pizza Onion and Capsicum 9' Inch</t>
+  </si>
+  <si>
+    <t>Pizza Paneer, Veggie ( Onion and Capsicum and corn) 9' Inch</t>
   </si>
 </sst>
 </file>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -858,7 +858,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -886,7 +886,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -895,12 +895,12 @@
         <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -909,12 +909,12 @@
         <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -923,12 +923,12 @@
         <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -937,12 +937,12 @@
         <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -951,12 +951,12 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -965,12 +965,12 @@
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -979,12 +979,12 @@
         <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -993,12 +993,12 @@
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1007,12 +1007,12 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1021,12 +1021,12 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1035,12 +1035,12 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1049,12 +1049,12 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1063,12 +1063,12 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1077,12 +1077,12 @@
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1091,12 +1091,12 @@
         <v>550</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1105,12 +1105,12 @@
         <v>480</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1119,12 +1119,12 @@
         <v>500</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1133,12 +1133,12 @@
         <v>350</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1147,12 +1147,12 @@
         <v>450</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1161,12 +1161,12 @@
         <v>400</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1175,12 +1175,12 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1189,12 +1189,12 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1203,12 +1203,12 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1217,12 +1217,12 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1231,12 +1231,12 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1245,12 +1245,12 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1259,12 +1259,12 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1273,12 +1273,12 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1287,12 +1287,12 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1301,12 +1301,12 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1315,12 +1315,12 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1329,12 +1329,12 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1343,12 +1343,12 @@
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1357,12 +1357,12 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1371,12 +1371,12 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1385,12 +1385,12 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1399,12 +1399,12 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1413,12 +1413,12 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1427,12 +1427,12 @@
         <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1441,12 +1441,12 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1455,12 +1455,12 @@
         <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1469,12 +1469,12 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1503,7 +1503,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1512,12 +1512,12 @@
         <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1526,12 +1526,12 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1540,12 +1540,12 @@
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1554,18 +1554,18 @@
         <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/DhalisMenu.xlsx
+++ b/DhalisMenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441834F-7BBC-447E-861D-930FBD49BC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B5F88-684E-47CA-ADAF-311DC387BBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,16 +356,16 @@
     <t>7 Inch Pizza Veggi Panner( Onion and Capcium and corn).png</t>
   </si>
   <si>
-    <t>Pizza Margarita 9' Inch</t>
-  </si>
-  <si>
-    <t>Pizza Corn 9' Inch</t>
-  </si>
-  <si>
-    <t>Pizza Onion and Capsicum 9' Inch</t>
-  </si>
-  <si>
-    <t>Pizza Paneer, Veggie ( Onion and Capsicum and corn) 9' Inch</t>
+    <t xml:space="preserve">9' Inch Pizza Corn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9' Inch Pizza Onion and Capsicum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9' Inch Pizza Paneer, Veggie ( Onion and Capsicum and corn) </t>
+  </si>
+  <si>
+    <t>9' Inch Pizza Margarita</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,7 +886,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14">
         <v>0</v>
